--- a/readme.xlsx
+++ b/readme.xlsx
@@ -1018,6 +1018,195 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文字方塊 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="2667000"/>
+          <a:ext cx="1097280" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Mesh</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文字方塊 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="3139440"/>
+          <a:ext cx="1097280" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Texture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文字方塊 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3589020" y="3741420"/>
+          <a:ext cx="1097280" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Particle</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1313,7 +1502,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
